--- a/data/raw/election/voters-age-sex-education/2023/Bitlis.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Bitlis.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:30:42-17930459181" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="36">
   <si>
     <t>Bitlis</t>
   </si>
@@ -122,6 +121,12 @@
   </si>
   <si>
     <t>Tatvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -655,7 +660,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -669,16 +674,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,10 +1017,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:C188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,20 +1040,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1140,7 +1154,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="5">
-        <v>1.9830000000000001</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1179,7 +1193,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="5">
-        <v>1.9990000000000001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1220,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="M8" s="5">
-        <v>1.306</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1259,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="M9" s="5">
-        <v>1.272</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1300,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="5">
-        <v>1.032</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1339,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="5">
-        <v>1.0209999999999999</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1379,7 +1393,7 @@
       <c r="L12" s="4">
         <v>4</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>836</v>
       </c>
     </row>
@@ -1418,7 +1432,7 @@
       <c r="L13" s="4">
         <v>4</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>785</v>
       </c>
     </row>
@@ -1459,7 +1473,7 @@
       <c r="L14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>776</v>
       </c>
     </row>
@@ -1498,7 +1512,7 @@
       <c r="L15" s="4">
         <v>4</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>746</v>
       </c>
     </row>
@@ -1539,7 +1553,7 @@
       <c r="L16" s="4">
         <v>3</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>619</v>
       </c>
     </row>
@@ -1578,7 +1592,7 @@
       <c r="L17" s="4">
         <v>3</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="6">
         <v>617</v>
       </c>
     </row>
@@ -1619,7 +1633,7 @@
       <c r="L18" s="4">
         <v>3</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>676</v>
       </c>
     </row>
@@ -1658,7 +1672,7 @@
       <c r="L19" s="4">
         <v>1</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>598</v>
       </c>
     </row>
@@ -1699,7 +1713,7 @@
       <c r="L20" s="4">
         <v>2</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>590</v>
       </c>
     </row>
@@ -1738,7 +1752,7 @@
       <c r="L21" s="4">
         <v>1</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>484</v>
       </c>
     </row>
@@ -1779,7 +1793,7 @@
       <c r="L22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>468</v>
       </c>
     </row>
@@ -1818,7 +1832,7 @@
       <c r="L23" s="4">
         <v>2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>480</v>
       </c>
     </row>
@@ -1859,7 +1873,7 @@
       <c r="L24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>415</v>
       </c>
     </row>
@@ -1898,7 +1912,7 @@
       <c r="L25" s="4">
         <v>2</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>410</v>
       </c>
     </row>
@@ -1939,7 +1953,7 @@
       <c r="L26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>224</v>
       </c>
     </row>
@@ -1978,7 +1992,7 @@
       <c r="L27" s="4">
         <v>1</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>258</v>
       </c>
     </row>
@@ -2019,7 +2033,7 @@
       <c r="L28" s="4">
         <v>2</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="6">
         <v>288</v>
       </c>
     </row>
@@ -2058,7 +2072,7 @@
       <c r="L29" s="4">
         <v>7</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="6">
         <v>409</v>
       </c>
     </row>
@@ -2066,39 +2080,39 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>689</v>
       </c>
       <c r="D30" s="5">
-        <v>1.2150000000000001</v>
+        <v>1215</v>
       </c>
       <c r="E30" s="5">
-        <v>3.1190000000000002</v>
+        <v>3119</v>
       </c>
       <c r="F30" s="5">
-        <v>1.5089999999999999</v>
+        <v>1509</v>
       </c>
       <c r="G30" s="5">
-        <v>4.1449999999999996</v>
+        <v>4145</v>
       </c>
       <c r="H30" s="5">
-        <v>5.0679999999999996</v>
+        <v>5068</v>
       </c>
       <c r="I30" s="5">
-        <v>2.21</v>
-      </c>
-      <c r="J30" s="5">
+        <v>2210</v>
+      </c>
+      <c r="J30" s="6">
         <v>234</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>17</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>86</v>
       </c>
       <c r="M30" s="5">
-        <v>18.292000000000002</v>
+        <v>18292</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2159,11 +2173,11 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1.276</v>
+      <c r="G32" s="9">
+        <v>1190</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1276</v>
       </c>
       <c r="I32" s="4">
         <v>240</v>
@@ -2178,7 +2192,7 @@
         <v>26</v>
       </c>
       <c r="M32" s="5">
-        <v>2.774</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2198,11 +2212,11 @@
       <c r="F33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1.1419999999999999</v>
+      <c r="G33" s="9">
+        <v>1122</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1142</v>
       </c>
       <c r="I33" s="4">
         <v>264</v>
@@ -2217,7 +2231,7 @@
         <v>10</v>
       </c>
       <c r="M33" s="5">
-        <v>2.6619999999999999</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2258,7 +2272,7 @@
         <v>16</v>
       </c>
       <c r="M34" s="5">
-        <v>1.7549999999999999</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2297,7 +2311,7 @@
         <v>13</v>
       </c>
       <c r="M35" s="5">
-        <v>1.7370000000000001</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2338,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="M36" s="5">
-        <v>1.61</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2377,7 +2391,7 @@
         <v>7</v>
       </c>
       <c r="M37" s="5">
-        <v>1.5329999999999999</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2418,7 +2432,7 @@
         <v>14</v>
       </c>
       <c r="M38" s="5">
-        <v>1.29</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2457,7 +2471,7 @@
         <v>4</v>
       </c>
       <c r="M39" s="5">
-        <v>1.1950000000000001</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2498,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="M40" s="5">
-        <v>1.3320000000000001</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2537,7 +2551,7 @@
         <v>10</v>
       </c>
       <c r="M41" s="5">
-        <v>1.2370000000000001</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2577,7 +2591,7 @@
       <c r="L42" s="4">
         <v>9</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="6">
         <v>930</v>
       </c>
     </row>
@@ -2616,7 +2630,7 @@
       <c r="L43" s="4">
         <v>7</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>820</v>
       </c>
     </row>
@@ -2657,7 +2671,7 @@
       <c r="L44" s="4">
         <v>6</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="6">
         <v>919</v>
       </c>
     </row>
@@ -2696,7 +2710,7 @@
       <c r="L45" s="4">
         <v>8</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="6">
         <v>852</v>
       </c>
     </row>
@@ -2737,7 +2751,7 @@
       <c r="L46" s="4">
         <v>6</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="6">
         <v>773</v>
       </c>
     </row>
@@ -2776,7 +2790,7 @@
       <c r="L47" s="4">
         <v>4</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="6">
         <v>726</v>
       </c>
     </row>
@@ -2817,7 +2831,7 @@
       <c r="L48" s="4">
         <v>1</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="6">
         <v>636</v>
       </c>
     </row>
@@ -2856,7 +2870,7 @@
       <c r="L49" s="4">
         <v>3</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="6">
         <v>563</v>
       </c>
     </row>
@@ -2897,7 +2911,7 @@
       <c r="L50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>505</v>
       </c>
     </row>
@@ -2936,7 +2950,7 @@
       <c r="L51" s="4">
         <v>2</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="6">
         <v>493</v>
       </c>
     </row>
@@ -2977,7 +2991,7 @@
       <c r="L52" s="4">
         <v>3</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>292</v>
       </c>
     </row>
@@ -3016,7 +3030,7 @@
       <c r="L53" s="4">
         <v>6</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>403</v>
       </c>
     </row>
@@ -3057,7 +3071,7 @@
       <c r="L54" s="4">
         <v>3</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="6">
         <v>377</v>
       </c>
     </row>
@@ -3096,7 +3110,7 @@
       <c r="L55" s="4">
         <v>7</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="6">
         <v>485</v>
       </c>
     </row>
@@ -3104,39 +3118,39 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>1.2050000000000001</v>
+        <v>1205</v>
       </c>
       <c r="D56" s="5">
-        <v>1.6160000000000001</v>
+        <v>1616</v>
       </c>
       <c r="E56" s="5">
-        <v>4.048</v>
+        <v>4048</v>
       </c>
       <c r="F56" s="5">
-        <v>2.2469999999999999</v>
+        <v>2247</v>
       </c>
       <c r="G56" s="5">
-        <v>5.2619999999999996</v>
+        <v>5262</v>
       </c>
       <c r="H56" s="5">
-        <v>7.3789999999999996</v>
+        <v>7379</v>
       </c>
       <c r="I56" s="5">
-        <v>3.544</v>
-      </c>
-      <c r="J56" s="5">
+        <v>3544</v>
+      </c>
+      <c r="J56" s="6">
         <v>388</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>28</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>182</v>
       </c>
       <c r="M56" s="5">
-        <v>25.899000000000001</v>
+        <v>25899</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3197,11 +3211,11 @@
       <c r="F58" s="4">
         <v>3</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="H58" s="4">
-        <v>2.6989999999999998</v>
+      <c r="G58" s="9">
+        <v>1057</v>
+      </c>
+      <c r="H58" s="9">
+        <v>2699</v>
       </c>
       <c r="I58" s="4">
         <v>445</v>
@@ -3216,7 +3230,7 @@
         <v>32</v>
       </c>
       <c r="M58" s="5">
-        <v>4.3049999999999997</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3236,11 +3250,11 @@
       <c r="F59" s="4">
         <v>5</v>
       </c>
-      <c r="G59" s="4">
-        <v>1.343</v>
-      </c>
-      <c r="H59" s="4">
-        <v>2.109</v>
+      <c r="G59" s="9">
+        <v>1343</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2109</v>
       </c>
       <c r="I59" s="4">
         <v>585</v>
@@ -3255,7 +3269,7 @@
         <v>5</v>
       </c>
       <c r="M59" s="5">
-        <v>4.3019999999999996</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3280,11 +3294,11 @@
       <c r="G60" s="4">
         <v>509</v>
       </c>
-      <c r="H60" s="4">
-        <v>1.196</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1.21</v>
+      <c r="H60" s="9">
+        <v>1196</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1210</v>
       </c>
       <c r="J60" s="4">
         <v>97</v>
@@ -3296,7 +3310,7 @@
         <v>14</v>
       </c>
       <c r="M60" s="5">
-        <v>3.1389999999999998</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3322,8 +3336,8 @@
       <c r="H61" s="4">
         <v>667</v>
       </c>
-      <c r="I61" s="4">
-        <v>1.2889999999999999</v>
+      <c r="I61" s="9">
+        <v>1289</v>
       </c>
       <c r="J61" s="4">
         <v>98</v>
@@ -3335,7 +3349,7 @@
         <v>8</v>
       </c>
       <c r="M61" s="5">
-        <v>3.3050000000000002</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3363,8 +3377,8 @@
       <c r="H62" s="4">
         <v>952</v>
       </c>
-      <c r="I62" s="4">
-        <v>1.2989999999999999</v>
+      <c r="I62" s="9">
+        <v>1299</v>
       </c>
       <c r="J62" s="4">
         <v>207</v>
@@ -3376,7 +3390,7 @@
         <v>11</v>
       </c>
       <c r="M62" s="5">
-        <v>3.19</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3415,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="M63" s="5">
-        <v>2.9060000000000001</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3456,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="M64" s="5">
-        <v>2.4660000000000002</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3495,7 +3509,7 @@
         <v>15</v>
       </c>
       <c r="M65" s="5">
-        <v>2.2040000000000002</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3536,7 +3550,7 @@
         <v>4</v>
       </c>
       <c r="M66" s="5">
-        <v>2.33</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3575,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="M67" s="5">
-        <v>2.028</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3616,7 +3630,7 @@
         <v>6</v>
       </c>
       <c r="M68" s="5">
-        <v>1.72</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3655,7 +3669,7 @@
         <v>8</v>
       </c>
       <c r="M69" s="5">
-        <v>1.5960000000000001</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3696,7 +3710,7 @@
         <v>2</v>
       </c>
       <c r="M70" s="5">
-        <v>1.5509999999999999</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3735,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="M71" s="5">
-        <v>1.337</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3776,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="M72" s="5">
-        <v>1.3009999999999999</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3815,7 +3829,7 @@
         <v>4</v>
       </c>
       <c r="M73" s="5">
-        <v>1.0329999999999999</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3856,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="M74" s="5">
-        <v>1.044</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3894,7 +3908,7 @@
       <c r="L75" s="4">
         <v>3</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="6">
         <v>906</v>
       </c>
     </row>
@@ -3935,7 +3949,7 @@
       <c r="L76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="6">
         <v>750</v>
       </c>
     </row>
@@ -3974,7 +3988,7 @@
       <c r="L77" s="4">
         <v>3</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="6">
         <v>836</v>
       </c>
     </row>
@@ -4015,7 +4029,7 @@
       <c r="L78" s="4">
         <v>2</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="6">
         <v>444</v>
       </c>
     </row>
@@ -4054,7 +4068,7 @@
       <c r="L79" s="4">
         <v>4</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="6">
         <v>647</v>
       </c>
     </row>
@@ -4095,7 +4109,7 @@
       <c r="L80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="6">
         <v>471</v>
       </c>
     </row>
@@ -4134,7 +4148,7 @@
       <c r="L81" s="4">
         <v>10</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="6">
         <v>791</v>
       </c>
     </row>
@@ -4142,39 +4156,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="5">
-        <v>2.141</v>
+        <v>2141</v>
       </c>
       <c r="D82" s="5">
-        <v>2.14</v>
+        <v>2140</v>
       </c>
       <c r="E82" s="5">
-        <v>5.39</v>
+        <v>5390</v>
       </c>
       <c r="F82" s="5">
-        <v>4.2990000000000004</v>
+        <v>4299</v>
       </c>
       <c r="G82" s="5">
-        <v>7.5149999999999997</v>
+        <v>7515</v>
       </c>
       <c r="H82" s="5">
-        <v>13.521000000000001</v>
+        <v>13521</v>
       </c>
       <c r="I82" s="5">
-        <v>8.3450000000000006</v>
-      </c>
-      <c r="J82" s="5">
+        <v>8345</v>
+      </c>
+      <c r="J82" s="6">
         <v>911</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>207</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>133</v>
       </c>
       <c r="M82" s="5">
-        <v>44.601999999999997</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4235,11 +4249,11 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.482</v>
-      </c>
-      <c r="H84" s="4">
-        <v>1.7450000000000001</v>
+      <c r="G84" s="9">
+        <v>1482</v>
+      </c>
+      <c r="H84" s="9">
+        <v>1745</v>
       </c>
       <c r="I84" s="4">
         <v>231</v>
@@ -4254,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="M84" s="5">
-        <v>3.5579999999999998</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4274,11 +4288,11 @@
       <c r="F85" s="4">
         <v>4</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.677</v>
-      </c>
-      <c r="H85" s="4">
-        <v>1.3049999999999999</v>
+      <c r="G85" s="9">
+        <v>1677</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1305</v>
       </c>
       <c r="I85" s="4">
         <v>305</v>
@@ -4293,7 +4307,7 @@
         <v>4</v>
       </c>
       <c r="M85" s="5">
-        <v>3.496</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4334,7 +4348,7 @@
         <v>6</v>
       </c>
       <c r="M86" s="5">
-        <v>2.2210000000000001</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4373,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="M87" s="5">
-        <v>2.0489999999999999</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4414,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="M88" s="5">
-        <v>1.9239999999999999</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4453,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="M89" s="5">
-        <v>1.6739999999999999</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4494,7 +4508,7 @@
         <v>3</v>
       </c>
       <c r="M90" s="5">
-        <v>1.4390000000000001</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4533,7 +4547,7 @@
         <v>6</v>
       </c>
       <c r="M91" s="5">
-        <v>1.141</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4574,7 +4588,7 @@
         <v>15</v>
       </c>
       <c r="M92" s="5">
-        <v>1.5660000000000001</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4613,7 +4627,7 @@
         <v>10</v>
       </c>
       <c r="M93" s="5">
-        <v>1.4279999999999999</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4654,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="M94" s="5">
-        <v>1.0489999999999999</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4692,7 +4706,7 @@
       <c r="L95" s="4">
         <v>9</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>997</v>
       </c>
     </row>
@@ -4733,7 +4747,7 @@
       <c r="L96" s="4">
         <v>1</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>945</v>
       </c>
     </row>
@@ -4772,7 +4786,7 @@
       <c r="L97" s="4">
         <v>1</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>770</v>
       </c>
     </row>
@@ -4813,7 +4827,7 @@
       <c r="L98" s="4">
         <v>2</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>841</v>
       </c>
     </row>
@@ -4852,7 +4866,7 @@
       <c r="L99" s="4">
         <v>8</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>698</v>
       </c>
     </row>
@@ -4893,7 +4907,7 @@
       <c r="L100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>554</v>
       </c>
     </row>
@@ -4932,7 +4946,7 @@
       <c r="L101" s="4">
         <v>3</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>491</v>
       </c>
     </row>
@@ -4973,7 +4987,7 @@
       <c r="L102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>412</v>
       </c>
     </row>
@@ -5012,7 +5026,7 @@
       <c r="L103" s="4">
         <v>6</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>448</v>
       </c>
     </row>
@@ -5053,7 +5067,7 @@
       <c r="L104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>239</v>
       </c>
     </row>
@@ -5092,7 +5106,7 @@
       <c r="L105" s="4">
         <v>7</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>342</v>
       </c>
     </row>
@@ -5133,7 +5147,7 @@
       <c r="L106" s="4">
         <v>2</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>231</v>
       </c>
     </row>
@@ -5172,7 +5186,7 @@
       <c r="L107" s="4">
         <v>6</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>439</v>
       </c>
     </row>
@@ -5180,39 +5194,39 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="5">
-        <v>1.762</v>
+        <v>1762</v>
       </c>
       <c r="D108" s="5">
-        <v>2.206</v>
+        <v>2206</v>
       </c>
       <c r="E108" s="5">
-        <v>3.843</v>
+        <v>3843</v>
       </c>
       <c r="F108" s="5">
-        <v>3.2290000000000001</v>
+        <v>3229</v>
       </c>
       <c r="G108" s="5">
-        <v>6.8949999999999996</v>
+        <v>6895</v>
       </c>
       <c r="H108" s="5">
-        <v>7.601</v>
+        <v>7601</v>
       </c>
       <c r="I108" s="5">
-        <v>2.964</v>
-      </c>
-      <c r="J108" s="5">
+        <v>2964</v>
+      </c>
+      <c r="J108" s="6">
         <v>304</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>17</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>131</v>
       </c>
       <c r="M108" s="5">
-        <v>28.952000000000002</v>
+        <v>28952</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5276,8 +5290,8 @@
       <c r="G110" s="4">
         <v>817</v>
       </c>
-      <c r="H110" s="4">
-        <v>1.246</v>
+      <c r="H110" s="9">
+        <v>1246</v>
       </c>
       <c r="I110" s="4">
         <v>116</v>
@@ -5292,7 +5306,7 @@
         <v>32</v>
       </c>
       <c r="M110" s="5">
-        <v>2.335</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5315,8 +5329,8 @@
       <c r="G111" s="4">
         <v>824</v>
       </c>
-      <c r="H111" s="4">
-        <v>1.0269999999999999</v>
+      <c r="H111" s="9">
+        <v>1027</v>
       </c>
       <c r="I111" s="4">
         <v>160</v>
@@ -5331,7 +5345,7 @@
         <v>6</v>
       </c>
       <c r="M111" s="5">
-        <v>2.44</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5372,7 +5386,7 @@
         <v>8</v>
       </c>
       <c r="M112" s="5">
-        <v>1.43</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5411,7 +5425,7 @@
         <v>10</v>
       </c>
       <c r="M113" s="5">
-        <v>1.306</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5452,7 +5466,7 @@
         <v>7</v>
       </c>
       <c r="M114" s="5">
-        <v>1.0609999999999999</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5490,7 +5504,7 @@
       <c r="L115" s="4">
         <v>6</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="6">
         <v>840</v>
       </c>
     </row>
@@ -5531,7 +5545,7 @@
       <c r="L116" s="4">
         <v>4</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="6">
         <v>814</v>
       </c>
     </row>
@@ -5570,7 +5584,7 @@
       <c r="L117" s="4">
         <v>2</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="6">
         <v>743</v>
       </c>
     </row>
@@ -5611,7 +5625,7 @@
       <c r="L118" s="4">
         <v>4</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="6">
         <v>820</v>
       </c>
     </row>
@@ -5650,7 +5664,7 @@
       <c r="L119" s="4">
         <v>7</v>
       </c>
-      <c r="M119" s="5">
+      <c r="M119" s="6">
         <v>848</v>
       </c>
     </row>
@@ -5691,7 +5705,7 @@
       <c r="L120" s="4">
         <v>7</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="6">
         <v>734</v>
       </c>
     </row>
@@ -5730,7 +5744,7 @@
       <c r="L121" s="4">
         <v>3</v>
       </c>
-      <c r="M121" s="5">
+      <c r="M121" s="6">
         <v>685</v>
       </c>
     </row>
@@ -5771,7 +5785,7 @@
       <c r="L122" s="4">
         <v>5</v>
       </c>
-      <c r="M122" s="5">
+      <c r="M122" s="6">
         <v>645</v>
       </c>
     </row>
@@ -5810,7 +5824,7 @@
       <c r="L123" s="4">
         <v>5</v>
       </c>
-      <c r="M123" s="5">
+      <c r="M123" s="6">
         <v>618</v>
       </c>
     </row>
@@ -5851,7 +5865,7 @@
       <c r="L124" s="4">
         <v>3</v>
       </c>
-      <c r="M124" s="5">
+      <c r="M124" s="6">
         <v>671</v>
       </c>
     </row>
@@ -5890,7 +5904,7 @@
       <c r="L125" s="4">
         <v>7</v>
       </c>
-      <c r="M125" s="5">
+      <c r="M125" s="6">
         <v>555</v>
       </c>
     </row>
@@ -5931,7 +5945,7 @@
       <c r="L126" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M126" s="5">
+      <c r="M126" s="6">
         <v>576</v>
       </c>
     </row>
@@ -5970,7 +5984,7 @@
       <c r="L127" s="4">
         <v>3</v>
       </c>
-      <c r="M127" s="5">
+      <c r="M127" s="6">
         <v>518</v>
       </c>
     </row>
@@ -6011,7 +6025,7 @@
       <c r="L128" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="6">
         <v>415</v>
       </c>
     </row>
@@ -6050,7 +6064,7 @@
       <c r="L129" s="4">
         <v>7</v>
       </c>
-      <c r="M129" s="5">
+      <c r="M129" s="6">
         <v>557</v>
       </c>
     </row>
@@ -6091,7 +6105,7 @@
       <c r="L130" s="4">
         <v>2</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>363</v>
       </c>
     </row>
@@ -6130,7 +6144,7 @@
       <c r="L131" s="4">
         <v>9</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="6">
         <v>456</v>
       </c>
     </row>
@@ -6171,7 +6185,7 @@
       <c r="L132" s="4">
         <v>7</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="6">
         <v>386</v>
       </c>
     </row>
@@ -6210,7 +6224,7 @@
       <c r="L133" s="4">
         <v>14</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="6">
         <v>576</v>
       </c>
     </row>
@@ -6218,39 +6232,39 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
+      <c r="B134" s="7"/>
       <c r="C134" s="5">
-        <v>2.1520000000000001</v>
+        <v>2152</v>
       </c>
       <c r="D134" s="5">
-        <v>2.2639999999999998</v>
+        <v>2264</v>
       </c>
       <c r="E134" s="5">
-        <v>3.2490000000000001</v>
+        <v>3249</v>
       </c>
       <c r="F134" s="5">
-        <v>1.4490000000000001</v>
+        <v>1449</v>
       </c>
       <c r="G134" s="5">
-        <v>3.8620000000000001</v>
+        <v>3862</v>
       </c>
       <c r="H134" s="5">
-        <v>5.1289999999999996</v>
+        <v>5129</v>
       </c>
       <c r="I134" s="5">
-        <v>1.92</v>
-      </c>
-      <c r="J134" s="5">
+        <v>1920</v>
+      </c>
+      <c r="J134" s="6">
         <v>207</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="6">
         <v>2</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="6">
         <v>158</v>
       </c>
       <c r="M134" s="5">
-        <v>20.391999999999999</v>
+        <v>20392</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6330,7 +6344,7 @@
         <v>26</v>
       </c>
       <c r="M136" s="5">
-        <v>2.23</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6350,8 +6364,8 @@
       <c r="F137" s="4">
         <v>4</v>
       </c>
-      <c r="G137" s="4">
-        <v>1.1319999999999999</v>
+      <c r="G137" s="9">
+        <v>1132</v>
       </c>
       <c r="H137" s="4">
         <v>554</v>
@@ -6369,7 +6383,7 @@
         <v>3</v>
       </c>
       <c r="M137" s="5">
-        <v>2.17</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6410,7 +6424,7 @@
         <v>6</v>
       </c>
       <c r="M138" s="5">
-        <v>1.3109999999999999</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6449,7 +6463,7 @@
         <v>6</v>
       </c>
       <c r="M139" s="5">
-        <v>1.054</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6490,7 +6504,7 @@
         <v>5</v>
       </c>
       <c r="M140" s="5">
-        <v>1.115</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6528,7 +6542,7 @@
       <c r="L141" s="4">
         <v>7</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="6">
         <v>900</v>
       </c>
     </row>
@@ -6569,7 +6583,7 @@
       <c r="L142" s="4">
         <v>3</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="6">
         <v>813</v>
       </c>
     </row>
@@ -6608,7 +6622,7 @@
       <c r="L143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="6">
         <v>714</v>
       </c>
     </row>
@@ -6649,7 +6663,7 @@
       <c r="L144" s="4">
         <v>1</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="6">
         <v>829</v>
       </c>
     </row>
@@ -6688,7 +6702,7 @@
       <c r="L145" s="4">
         <v>2</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="6">
         <v>786</v>
       </c>
     </row>
@@ -6729,7 +6743,7 @@
       <c r="L146" s="4">
         <v>3</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="6">
         <v>698</v>
       </c>
     </row>
@@ -6768,7 +6782,7 @@
       <c r="L147" s="4">
         <v>4</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="6">
         <v>601</v>
       </c>
     </row>
@@ -6809,7 +6823,7 @@
       <c r="L148" s="4">
         <v>1</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="6">
         <v>693</v>
       </c>
     </row>
@@ -6848,7 +6862,7 @@
       <c r="L149" s="4">
         <v>4</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="6">
         <v>514</v>
       </c>
     </row>
@@ -6889,7 +6903,7 @@
       <c r="L150" s="4">
         <v>1</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="6">
         <v>533</v>
       </c>
     </row>
@@ -6928,7 +6942,7 @@
       <c r="L151" s="4">
         <v>2</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="6">
         <v>412</v>
       </c>
     </row>
@@ -6969,7 +6983,7 @@
       <c r="L152" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="6">
         <v>428</v>
       </c>
     </row>
@@ -7008,7 +7022,7 @@
       <c r="L153" s="4">
         <v>2</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="6">
         <v>356</v>
       </c>
     </row>
@@ -7049,7 +7063,7 @@
       <c r="L154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="6">
         <v>299</v>
       </c>
     </row>
@@ -7088,7 +7102,7 @@
       <c r="L155" s="4">
         <v>2</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="6">
         <v>334</v>
       </c>
     </row>
@@ -7129,7 +7143,7 @@
       <c r="L156" s="4">
         <v>2</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="6">
         <v>196</v>
       </c>
     </row>
@@ -7168,7 +7182,7 @@
       <c r="L157" s="4">
         <v>7</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="6">
         <v>307</v>
       </c>
     </row>
@@ -7209,7 +7223,7 @@
       <c r="L158" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="6">
         <v>211</v>
       </c>
     </row>
@@ -7248,7 +7262,7 @@
       <c r="L159" s="4">
         <v>13</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="6">
         <v>405</v>
       </c>
     </row>
@@ -7256,39 +7270,39 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>1.597</v>
+        <v>1597</v>
       </c>
       <c r="D160" s="5">
-        <v>1.617</v>
+        <v>1617</v>
       </c>
       <c r="E160" s="5">
-        <v>2.5670000000000002</v>
+        <v>2567</v>
       </c>
       <c r="F160" s="5">
-        <v>2.0430000000000001</v>
+        <v>2043</v>
       </c>
       <c r="G160" s="5">
-        <v>4.2389999999999999</v>
+        <v>4239</v>
       </c>
       <c r="H160" s="5">
-        <v>4.274</v>
+        <v>4274</v>
       </c>
       <c r="I160" s="5">
-        <v>1.35</v>
-      </c>
-      <c r="J160" s="5">
+        <v>1350</v>
+      </c>
+      <c r="J160" s="6">
         <v>116</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="6">
         <v>6</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="6">
         <v>100</v>
       </c>
       <c r="M160" s="5">
-        <v>17.908999999999999</v>
+        <v>17909</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7349,11 +7363,11 @@
       <c r="F162" s="4">
         <v>7</v>
       </c>
-      <c r="G162" s="4">
-        <v>1.9419999999999999</v>
-      </c>
-      <c r="H162" s="4">
-        <v>3.7120000000000002</v>
+      <c r="G162" s="9">
+        <v>1942</v>
+      </c>
+      <c r="H162" s="9">
+        <v>3712</v>
       </c>
       <c r="I162" s="4">
         <v>675</v>
@@ -7368,7 +7382,7 @@
         <v>51</v>
       </c>
       <c r="M162" s="5">
-        <v>6.5149999999999997</v>
+        <v>6515</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7388,11 +7402,11 @@
       <c r="F163" s="4">
         <v>6</v>
       </c>
-      <c r="G163" s="4">
-        <v>2.1949999999999998</v>
-      </c>
-      <c r="H163" s="4">
-        <v>3.2509999999999999</v>
+      <c r="G163" s="9">
+        <v>2195</v>
+      </c>
+      <c r="H163" s="9">
+        <v>3251</v>
       </c>
       <c r="I163" s="4">
         <v>754</v>
@@ -7407,7 +7421,7 @@
         <v>16</v>
       </c>
       <c r="M163" s="5">
-        <v>6.4790000000000001</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7429,14 +7443,14 @@
       <c r="F164" s="4">
         <v>81</v>
       </c>
-      <c r="G164" s="4">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="H164" s="4">
-        <v>1.641</v>
-      </c>
-      <c r="I164" s="4">
-        <v>1.7450000000000001</v>
+      <c r="G164" s="9">
+        <v>1031</v>
+      </c>
+      <c r="H164" s="9">
+        <v>1641</v>
+      </c>
+      <c r="I164" s="9">
+        <v>1745</v>
       </c>
       <c r="J164" s="4">
         <v>151</v>
@@ -7448,7 +7462,7 @@
         <v>19</v>
       </c>
       <c r="M164" s="5">
-        <v>4.8220000000000001</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7468,14 +7482,14 @@
       <c r="F165" s="4">
         <v>205</v>
       </c>
-      <c r="G165" s="4">
-        <v>1.107</v>
+      <c r="G165" s="9">
+        <v>1107</v>
       </c>
       <c r="H165" s="4">
         <v>984</v>
       </c>
-      <c r="I165" s="4">
-        <v>1.7290000000000001</v>
+      <c r="I165" s="9">
+        <v>1729</v>
       </c>
       <c r="J165" s="4">
         <v>142</v>
@@ -7487,7 +7501,7 @@
         <v>11</v>
       </c>
       <c r="M165" s="5">
-        <v>4.8419999999999996</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7512,11 +7526,11 @@
       <c r="G166" s="4">
         <v>495</v>
       </c>
-      <c r="H166" s="4">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="I166" s="4">
-        <v>1.571</v>
+      <c r="H166" s="9">
+        <v>1354</v>
+      </c>
+      <c r="I166" s="9">
+        <v>1571</v>
       </c>
       <c r="J166" s="4">
         <v>288</v>
@@ -7528,7 +7542,7 @@
         <v>13</v>
       </c>
       <c r="M166" s="5">
-        <v>4.4960000000000004</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7554,8 +7568,8 @@
       <c r="H167" s="4">
         <v>952</v>
       </c>
-      <c r="I167" s="4">
-        <v>1.0629999999999999</v>
+      <c r="I167" s="9">
+        <v>1063</v>
       </c>
       <c r="J167" s="4">
         <v>164</v>
@@ -7567,7 +7581,7 @@
         <v>25</v>
       </c>
       <c r="M167" s="5">
-        <v>4.3099999999999996</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7592,11 +7606,11 @@
       <c r="G168" s="4">
         <v>375</v>
       </c>
-      <c r="H168" s="4">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="I168" s="4">
-        <v>1.03</v>
+      <c r="H168" s="9">
+        <v>1185</v>
+      </c>
+      <c r="I168" s="9">
+        <v>1030</v>
       </c>
       <c r="J168" s="4">
         <v>199</v>
@@ -7608,7 +7622,7 @@
         <v>21</v>
       </c>
       <c r="M168" s="5">
-        <v>3.7719999999999998</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7647,7 +7661,7 @@
         <v>11</v>
       </c>
       <c r="M169" s="5">
-        <v>3.32</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7672,8 +7686,8 @@
       <c r="G170" s="4">
         <v>546</v>
       </c>
-      <c r="H170" s="4">
-        <v>1.0620000000000001</v>
+      <c r="H170" s="9">
+        <v>1062</v>
       </c>
       <c r="I170" s="4">
         <v>698</v>
@@ -7688,7 +7702,7 @@
         <v>12</v>
       </c>
       <c r="M170" s="5">
-        <v>3.3490000000000002</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7727,7 +7741,7 @@
         <v>11</v>
       </c>
       <c r="M171" s="5">
-        <v>3.0710000000000002</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7768,7 +7782,7 @@
         <v>13</v>
       </c>
       <c r="M172" s="5">
-        <v>2.5430000000000001</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7807,7 +7821,7 @@
         <v>19</v>
       </c>
       <c r="M173" s="5">
-        <v>2.25</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7848,7 +7862,7 @@
         <v>13</v>
       </c>
       <c r="M174" s="5">
-        <v>2.1040000000000001</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7887,7 +7901,7 @@
         <v>22</v>
       </c>
       <c r="M175" s="5">
-        <v>1.81</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7928,7 +7942,7 @@
         <v>6</v>
       </c>
       <c r="M176" s="5">
-        <v>1.734</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7967,7 +7981,7 @@
         <v>13</v>
       </c>
       <c r="M177" s="5">
-        <v>1.454</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8008,7 +8022,7 @@
         <v>2</v>
       </c>
       <c r="M178" s="5">
-        <v>1.264</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8047,7 +8061,7 @@
         <v>14</v>
       </c>
       <c r="M179" s="5">
-        <v>1.075</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8088,7 +8102,7 @@
         <v>3</v>
       </c>
       <c r="M180" s="5">
-        <v>1.0169999999999999</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8127,7 +8141,7 @@
         <v>16</v>
       </c>
       <c r="M181" s="5">
-        <v>1.1379999999999999</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8167,7 +8181,7 @@
       <c r="L182" s="4">
         <v>5</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>657</v>
       </c>
     </row>
@@ -8206,7 +8220,7 @@
       <c r="L183" s="4">
         <v>15</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>821</v>
       </c>
     </row>
@@ -8247,7 +8261,7 @@
       <c r="L184" s="4">
         <v>1</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>687</v>
       </c>
     </row>
@@ -8287,46 +8301,56 @@
         <v>23</v>
       </c>
       <c r="M185" s="5">
-        <v>1.083</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="5">
-        <v>3.3660000000000001</v>
+        <v>3366</v>
       </c>
       <c r="D186" s="5">
-        <v>3.8410000000000002</v>
+        <v>3841</v>
       </c>
       <c r="E186" s="5">
-        <v>8.0649999999999995</v>
+        <v>8065</v>
       </c>
       <c r="F186" s="5">
-        <v>5.4779999999999998</v>
+        <v>5478</v>
       </c>
       <c r="G186" s="5">
-        <v>11.776</v>
+        <v>11776</v>
       </c>
       <c r="H186" s="5">
-        <v>18.850000000000001</v>
+        <v>18850</v>
       </c>
       <c r="I186" s="5">
-        <v>11.391</v>
+        <v>11391</v>
       </c>
       <c r="J186" s="5">
-        <v>1.363</v>
-      </c>
-      <c r="K186" s="5">
+        <v>1363</v>
+      </c>
+      <c r="K186" s="6">
         <v>128</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="6">
         <v>355</v>
       </c>
       <c r="M186" s="5">
-        <v>64.613</v>
+        <v>64613</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
